--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.886194037237126</v>
+        <v>3.007047033355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2041535527663003</v>
+        <v>0.4163062639011709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3985801331702455</v>
+        <v>0.3026220012004004</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>2.064566904465275</v>
+        <v>2.488000691027292</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0436421956896334</v>
+        <v>0.1264636605426941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1089261359368034</v>
+        <v>0.08517322730745747</v>
       </c>
     </row>
     <row r="6">
@@ -664,20 +664,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.284453402870815</v>
+        <v>6.179892727220358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.794967045171517</v>
+        <v>3.756765675833439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.602359241804651</v>
+        <v>3.452940253261637</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>4.554225990162641</v>
+        <v>3.963958933642093</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.764514693163123</v>
+        <v>4.272745218260099</v>
       </c>
     </row>
     <row r="7">
@@ -718,22 +718,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.923693358078032</v>
+        <v>5.069482269491752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.227069863692078</v>
+        <v>4.012599483327883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.861062039057687</v>
+        <v>1.874725000699342</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.000261318574595</v>
+        <v>1.914023975360287</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.879249381251177</v>
+        <v>1.663892201307261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.561006789439655</v>
+        <v>1.53736911125858</v>
       </c>
     </row>
     <row r="9">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.107887975254373</v>
+        <v>9.027039762436887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.907088453439408</v>
+        <v>7.933756397776616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.315681779556251</v>
+        <v>4.311022849097365</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.845083452912075</v>
+        <v>8.299074193744872</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.603767607839197</v>
+        <v>8.073336714036298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>12.87093337129387</v>
+        <v>13.63554937796684</v>
       </c>
     </row>
     <row r="10">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.697301384316339</v>
+        <v>1.801819738928113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.344375215501725</v>
+        <v>1.293196790203573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.210543132565348</v>
+        <v>1.235983825273312</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.4876098466939739</v>
+        <v>0.5296439934905357</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2545492280902777</v>
+        <v>0.1882974843195004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6028449151891186</v>
+        <v>0.7369755935911729</v>
       </c>
     </row>
     <row r="12">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.058126146505525</v>
+        <v>6.029103774497763</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.216051990654434</v>
+        <v>6.132812642524722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.090196533175775</v>
+        <v>4.210560389065004</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.200990104520946</v>
+        <v>5.202628080947986</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.476058734940109</v>
+        <v>2.346359062902085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>19.49314158790342</v>
+        <v>18.00644612346899</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.519153172186706</v>
+        <v>4.509022886515028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.704428647289466</v>
+        <v>4.678880345720929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.457534995984404</v>
+        <v>1.38942780963822</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9611243846165163</v>
+        <v>0.9483417459413228</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9976731739950055</v>
+        <v>1.111843122238381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7500938842077571</v>
+        <v>0.7500097229106684</v>
       </c>
     </row>
     <row r="15">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.14177790587701</v>
+        <v>9.055408127030914</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.086829183904136</v>
+        <v>9.047604811853102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.192549452686851</v>
+        <v>4.193338088172839</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.17874849096566</v>
+        <v>3.213996661989189</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.363896930558576</v>
+        <v>3.548057899605635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.522347696709508</v>
+        <v>6.605202531530188</v>
       </c>
     </row>
     <row r="16">
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.769403931935353</v>
+        <v>4.814157683623267</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.89330508305506</v>
+        <v>3.924789090822673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.949627542766491</v>
+        <v>1.899311791839556</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2.000443859049671</v>
+        <v>1.993351683336052</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.254662782519985</v>
+        <v>1.279298157129532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.590302402549051</v>
+        <v>1.524425768829856</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.977726395359057</v>
+        <v>6.949710156518975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.956288862975221</v>
+        <v>6.027052852051836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.332137171405332</v>
+        <v>3.275572825074177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4.318697073733399</v>
+        <v>4.195915535521812</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.755312330716358</v>
+        <v>2.848644577567059</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.617156777241086</v>
+        <v>4.651901967901122</v>
       </c>
     </row>
     <row r="19">
